--- a/medicine/Premiers secours et secourisme/Procédure_ABCDEF_de_traitement_des_urgences_extrahospitalières/Procédure_ABCDEF_de_traitement_des_urgences_extrahospitalières.xlsx
+++ b/medicine/Premiers secours et secourisme/Procédure_ABCDEF_de_traitement_des_urgences_extrahospitalières/Procédure_ABCDEF_de_traitement_des_urgences_extrahospitalières.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proc%C3%A9dure_ABCDEF_de_traitement_des_urgences_extrahospitali%C3%A8res</t>
+          <t>Procédure_ABCDEF_de_traitement_des_urgences_extrahospitalières</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sigle mnémotechnique L'ABCDE sert à décrire la procédure d'intervention pour les urgences médicales extra-hospitalières. Des différences y apparaissent selon les écoles d'enseignement. Il signifie généralement :
 L : L'état des lieux, observer la sécurité ;
@@ -513,7 +525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proc%C3%A9dure_ABCDEF_de_traitement_des_urgences_extrahospitali%C3%A8res</t>
+          <t>Procédure_ABCDEF_de_traitement_des_urgences_extrahospitalières</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +543,9 @@
           <t>Chronologie de l'intervention</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Si l'on se contente de la partie médicale de l'intervention, l'ordre des points correspond à l'ordre chronologique. Mais dans le cadre global de l'accident ou du malaise, c'est le point E, « environnement », qui vient en premier.
 En effet, la première préoccupation est la protection, pour éviter d'avoir d'autres victimes ou que l'état de la victime ne s'aggrave.
@@ -548,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Proc%C3%A9dure_ABCDEF_de_traitement_des_urgences_extrahospitali%C3%A8res</t>
+          <t>Procédure_ABCDEF_de_traitement_des_urgences_extrahospitalières</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -566,7 +580,9 @@
           <t>Gestion de l'espace</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans un contexte d'urgence, il est important que chaque intervenant ait sa place, que le matériel soit accessible. La victime se trouvera in fine plat dos. On considère alors un disque de 1,5 m de rayon centré sur la tête de la victime et on en définit quatre quadrants.
 La personne pratiquant les insufflations manuelles (avec un ballon autoremplisseur à valve unidirectionnelle) est à genou derrière la tête de la victime et est habituellement droitière, l'insufflateur manuel est donc à droite et la bouteille d'oxygène également, du côté de la tête.
@@ -588,7 +604,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Proc%C3%A9dure_ABCDEF_de_traitement_des_urgences_extrahospitali%C3%A8res</t>
+          <t>Procédure_ABCDEF_de_traitement_des_urgences_extrahospitalières</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -606,7 +622,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Une personne s'étouffe avec de la nourriture, un objet
 Témoin :
